--- a/medicine/Mort/Cimetière_Notre-Dame-de-Belmont/Cimetière_Notre-Dame-de-Belmont.xlsx
+++ b/medicine/Mort/Cimetière_Notre-Dame-de-Belmont/Cimetière_Notre-Dame-de-Belmont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière Notre-Dame-de-Belmont est situé au 701, avenue Nérée-Tremblay à Québec, dans le quartier de la Cité-Universitaire. Il s'agit d'un cimetière de style anglais aménagé entre 1857 et 1859 où reposent plusieurs personnalités célèbres. Il dispose encore assez d'espace pour s'agrandir en direction de l'ouest, jusqu'à l'avenue Nérée-Tremblay, où ont été construits deux columbariums.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 19 mai 1855, fut promulgué un acte concernant l'inhumation et la santé publique.
 À la suite d'une demande des paroissiens, la Fabrique Notre-Dame de Québec achète à John William Dunscomb un vaste terrain situé sur le chemin Sainte-Foy afin d'y aménager un cimetière catholique. L'achat du terrain est donc complété le 30 décembre 1857. Cette vaste propriété à l'écart de la ville contenant une grande variété d'arbres est aménagé en cimetière par l'architecte Charles Baillargé. Les travaux ont lieu entre 1857 et 1859. Finalement, le cimetière est béni le 10 juillet 1859 et son premier occupant enterré deux jours plus tard. 
 À la suite de protestations du voisinage contre les odeurs se dégageant du cimetière des Picotés, ce cimetière fut fermé officiellement en 1857. Dès 1858 commença l'exhumation des premiers corps. L'opération d'exhumation finit en 1861. 
 Les corps du cimetière des Picotés furent tous transportés au nouveau cimetière de Notre-Dame de Belmont.
-Depuis, le cimetière Belmont a accueilli des centaines de personnes de tout âge, de tout rang et bon nombre de célébrités. Il est maintenant administrativement fusionné avec le cimetière Saint-Charles, un des plus vastes de Québec[1].
+Depuis, le cimetière Belmont a accueilli des centaines de personnes de tout âge, de tout rang et bon nombre de célébrités. Il est maintenant administrativement fusionné avec le cimetière Saint-Charles, un des plus vastes de Québec.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Politique
-Narcisse-Henri-Édouard Faucher de Saint-Maurice (1844-1897), écrivain, journaliste, député de Bellechasse etu militaire
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Narcisse-Henri-Édouard Faucher de Saint-Maurice (1844-1897), écrivain, journaliste, député de Bellechasse etu militaire
 Edmund James Flynn (1847-1927), avocat, premier ministre du Québec
 Jean Lesage (1912-1980), avocat, premier ministre du Québec
 Félix-Gabriel Marchand (1832-1900), notaire, premier ministre du Québec
@@ -562,14 +581,82 @@
 Auguste Tessier (1853-1938), député
 Jean-Marie-Joseph-Pantaléon Pelletier (1860-1924), médecin et député
 Émile Moreau (1877-1959), député et conseiller législatif
-Philippe Hamel (1884-1954) chirurgien-dentiste et député
-Justice
-François-Xavier Lemieux (1851-1933), avocat d'Honoré Mercier et de Louis Riel.
+Philippe Hamel (1884-1954) chirurgien-dentiste et député</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>François-Xavier Lemieux (1851-1933), avocat d'Honoré Mercier et de Louis Riel.
 sir Adolphe-Basile Routhier (1839-1920), écrivain, critique littéraire, avocat, auteur, juge, professeur et auteur des paroles de l'hymne national du Canada
 Robert Taschereau (1896-1970), député et juge en chef du Canada
-Félix Allard (1897-1974), juge et député.
-Musique
-Antoine Dessane (1826-1873), organiste et compositeur français
+Félix Allard (1897-1974), juge et député.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antoine Dessane (1826-1873), organiste et compositeur français
 Ernest Gagnon (1834-1915), organiste, historien de la musique, compositeur
 Gustave Gagnon (1842-1930), organiste, professeur, compositeur
 Raoul Jobin (1906-1974), célèbre ténor québécois, professeur au Conservatoire
@@ -577,18 +664,86 @@
 Alys Robi (1923-2011), première chanteuse populaire québécoise à la carrière internationale
 Robert Talbot (1893-1954), chef d'orchestre et compositeur, deuxième chef de l'Orchestre symphonique de Québec
 Richard Verreau (1926-2005), ténor québécois
-Joseph Vézina (1849-1924), chef d'orchestre et compositeur, chef fondateur de l'Orchestre symphonique de Québec
-Littérature
-Monique Corriveau (1927-1976), romancière
+Joseph Vézina (1849-1924), chef d'orchestre et compositeur, chef fondateur de l'Orchestre symphonique de Québec</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Monique Corriveau (1927-1976), romancière
 Arthur Buies (1840-1901), journaliste, chroniqueur, polémiste, anticlérical et libre-penseur
 Eudore Évanturel (1852-1919), poète québécois
 Narcisse-Henri-Édouard Faucher de Saint-Maurice (1844-1897), écrivain, journaliste, député de Bellechasse et militaire
 Guy Frégault (1918-1977), historien et écrivain
 François-Xavier Garneau (1809-1866), premier historien canadien et journaliste
 Sir Adolphe-Basile Routhier (1839-1920), écrivain, critique littéraire, avocat, auteur, juge, professeur et auteur des paroles de l'hymne national du Canada
-Jules-Paul Tardivel (1851-1905), journaliste et romancier ultramontain
-Autres
-Georges-Élie Amyot (1856-1930), fondateur de la Dominion Corset et conseiller législatif
+Jules-Paul Tardivel (1851-1905), journaliste et romancier ultramontain</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Notre-Dame-de-Belmont</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Georges-Élie Amyot (1856-1930), fondateur de la Dominion Corset et conseiller législatif
 Emma Gaudreau (1861-1934), première femme dentiste au Canada, épouse d'Henri-Edmond Casgrain
 Cyrille Duquet (1841-1922), orfèvre, horloger, inventeur, échevin, politicien, musicien et homme de science
 Henri-Edmond Casgrain (1846-1914), dentiste, inventeur, époux d'Emma Gaudreau
